--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H2">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.72936440575619</v>
+        <v>1.242496666666667</v>
       </c>
       <c r="N2">
-        <v>1.72936440575619</v>
+        <v>3.72749</v>
       </c>
       <c r="O2">
-        <v>0.6948311874221474</v>
+        <v>0.3272238221337332</v>
       </c>
       <c r="P2">
-        <v>0.6948311874221474</v>
+        <v>0.3272238221337332</v>
       </c>
       <c r="Q2">
-        <v>2.870797589436006</v>
+        <v>7.544602527063333</v>
       </c>
       <c r="R2">
-        <v>2.870797589436006</v>
+        <v>67.90142274357</v>
       </c>
       <c r="S2">
-        <v>0.0007542855970800906</v>
+        <v>0.001290570514652311</v>
       </c>
       <c r="T2">
-        <v>0.0007542855970800906</v>
+        <v>0.001290570514652311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H3">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I3">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J3">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.759534246263452</v>
+        <v>1.744414</v>
       </c>
       <c r="N3">
-        <v>0.759534246263452</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O3">
-        <v>0.3051688125778526</v>
+        <v>0.459408730644692</v>
       </c>
       <c r="P3">
-        <v>0.3051688125778526</v>
+        <v>0.459408730644692</v>
       </c>
       <c r="Q3">
-        <v>1.260849983964929</v>
+        <v>10.592310326234</v>
       </c>
       <c r="R3">
-        <v>1.260849983964929</v>
+        <v>95.33079293610601</v>
       </c>
       <c r="S3">
-        <v>0.0003312810998877319</v>
+        <v>0.001811907696932813</v>
       </c>
       <c r="T3">
-        <v>0.0003312810998877319</v>
+        <v>0.001811907696932813</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1476.30280581482</v>
+        <v>6.072131</v>
       </c>
       <c r="H4">
-        <v>1476.30280581482</v>
+        <v>18.216393</v>
       </c>
       <c r="I4">
-        <v>0.9654191290832239</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J4">
-        <v>0.9654191290832239</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.72936440575619</v>
+        <v>0.8101743333333333</v>
       </c>
       <c r="N4">
-        <v>1.72936440575619</v>
+        <v>2.430523</v>
       </c>
       <c r="O4">
-        <v>0.6948311874221474</v>
+        <v>0.2133674472215748</v>
       </c>
       <c r="P4">
-        <v>0.6948311874221474</v>
+        <v>0.2133674472215748</v>
       </c>
       <c r="Q4">
-        <v>2553.065524494142</v>
+        <v>4.919484684837666</v>
       </c>
       <c r="R4">
-        <v>2553.065524494142</v>
+        <v>44.275362163539</v>
       </c>
       <c r="S4">
-        <v>0.6708033198209519</v>
+        <v>0.0008415210554513304</v>
       </c>
       <c r="T4">
-        <v>0.6708033198209519</v>
+        <v>0.0008415210554513302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J5">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.759534246263452</v>
+        <v>1.242496666666667</v>
       </c>
       <c r="N5">
-        <v>0.759534246263452</v>
+        <v>3.72749</v>
       </c>
       <c r="O5">
-        <v>0.3051688125778526</v>
+        <v>0.3272238221337332</v>
       </c>
       <c r="P5">
-        <v>0.3051688125778526</v>
+        <v>0.3272238221337332</v>
       </c>
       <c r="Q5">
-        <v>1121.302538871179</v>
+        <v>1839.953433610644</v>
       </c>
       <c r="R5">
-        <v>1121.302538871179</v>
+        <v>16559.5809024958</v>
       </c>
       <c r="S5">
-        <v>0.294615809262272</v>
+        <v>0.3147401922411761</v>
       </c>
       <c r="T5">
-        <v>0.294615809262272</v>
+        <v>0.314740192241176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.2204597067405</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>51.2204597067405</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.03349530421980817</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J6">
-        <v>0.03349530421980817</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.72936440575619</v>
+        <v>1.744414</v>
       </c>
       <c r="N6">
-        <v>1.72936440575619</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O6">
-        <v>0.6948311874221474</v>
+        <v>0.459408730644692</v>
       </c>
       <c r="P6">
-        <v>0.6948311874221474</v>
+        <v>0.459408730644692</v>
       </c>
       <c r="Q6">
-        <v>88.57883986330616</v>
+        <v>2583.218623474627</v>
       </c>
       <c r="R6">
-        <v>88.57883986330616</v>
+        <v>23248.96761127164</v>
       </c>
       <c r="S6">
-        <v>0.02327358200411538</v>
+        <v>0.4418822298985636</v>
       </c>
       <c r="T6">
-        <v>0.02327358200411538</v>
+        <v>0.4418822298985636</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.2204597067405</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>51.2204597067405</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.03349530421980817</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J7">
-        <v>0.03349530421980817</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.759534246263452</v>
+        <v>0.8101743333333333</v>
       </c>
       <c r="N7">
-        <v>0.759534246263452</v>
+        <v>2.430523</v>
       </c>
       <c r="O7">
-        <v>0.3051688125778526</v>
+        <v>0.2133674472215748</v>
       </c>
       <c r="P7">
-        <v>0.3051688125778526</v>
+        <v>0.2133674472215748</v>
       </c>
       <c r="Q7">
-        <v>38.90369325662666</v>
+        <v>1199.748125231629</v>
       </c>
       <c r="R7">
-        <v>38.90369325662666</v>
+        <v>10797.73312708466</v>
       </c>
       <c r="S7">
-        <v>0.01022172221569279</v>
+        <v>0.2052274523249157</v>
       </c>
       <c r="T7">
-        <v>0.01022172221569279</v>
+        <v>0.2052274523249156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>52.663316</v>
+      </c>
+      <c r="H8">
+        <v>157.989948</v>
+      </c>
+      <c r="I8">
+        <v>0.03420612626830831</v>
+      </c>
+      <c r="J8">
+        <v>0.0342061262683083</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.242496666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.72749</v>
+      </c>
+      <c r="O8">
+        <v>0.3272238221337332</v>
+      </c>
+      <c r="P8">
+        <v>0.3272238221337332</v>
+      </c>
+      <c r="Q8">
+        <v>65.43399458561333</v>
+      </c>
+      <c r="R8">
+        <v>588.9059512705199</v>
+      </c>
+      <c r="S8">
+        <v>0.01119305937790494</v>
+      </c>
+      <c r="T8">
+        <v>0.01119305937790494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>52.663316</v>
+      </c>
+      <c r="H9">
+        <v>157.989948</v>
+      </c>
+      <c r="I9">
+        <v>0.03420612626830831</v>
+      </c>
+      <c r="J9">
+        <v>0.0342061262683083</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.744414</v>
+      </c>
+      <c r="N9">
+        <v>5.233242000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.459408730644692</v>
+      </c>
+      <c r="P9">
+        <v>0.459408730644692</v>
+      </c>
+      <c r="Q9">
+        <v>91.866625716824</v>
+      </c>
+      <c r="R9">
+        <v>826.7996314514161</v>
+      </c>
+      <c r="S9">
+        <v>0.01571459304919557</v>
+      </c>
+      <c r="T9">
+        <v>0.01571459304919557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>52.663316</v>
+      </c>
+      <c r="H10">
+        <v>157.989948</v>
+      </c>
+      <c r="I10">
+        <v>0.03420612626830831</v>
+      </c>
+      <c r="J10">
+        <v>0.0342061262683083</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8101743333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.430523</v>
+      </c>
+      <c r="O10">
+        <v>0.2133674472215748</v>
+      </c>
+      <c r="P10">
+        <v>0.2133674472215748</v>
+      </c>
+      <c r="Q10">
+        <v>42.66646693142267</v>
+      </c>
+      <c r="R10">
+        <v>383.998202382804</v>
+      </c>
+      <c r="S10">
+        <v>0.007298473841207797</v>
+      </c>
+      <c r="T10">
+        <v>0.007298473841207794</v>
       </c>
     </row>
   </sheetData>
